--- a/sujet_tp/sujet_tp/src/output/save_clustering__hog_rbm_kmeans.xlsx
+++ b/sujet_tp/sujet_tp/src/output/save_clustering__hog_rbm_kmeans.xlsx
@@ -477,7 +477,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -497,7 +497,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -517,7 +517,7 @@
         <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -537,7 +537,7 @@
         <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
@@ -557,7 +557,7 @@
         <v>3</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -577,7 +577,7 @@
         <v>3</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -597,7 +597,7 @@
         <v>3</v>
       </c>
       <c r="F8" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -617,7 +617,7 @@
         <v>3</v>
       </c>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -637,7 +637,7 @@
         <v>4</v>
       </c>
       <c r="F10" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
@@ -677,7 +677,7 @@
         <v>5</v>
       </c>
       <c r="F12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -697,7 +697,7 @@
         <v>5</v>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -717,7 +717,7 @@
         <v>6</v>
       </c>
       <c r="F14" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -737,7 +737,7 @@
         <v>6</v>
       </c>
       <c r="F15" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -757,7 +757,7 @@
         <v>7</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17">
@@ -797,7 +797,7 @@
         <v>8</v>
       </c>
       <c r="F18" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
@@ -817,7 +817,7 @@
         <v>8</v>
       </c>
       <c r="F19" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
@@ -837,7 +837,7 @@
         <v>9</v>
       </c>
       <c r="F20" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21">
@@ -857,7 +857,7 @@
         <v>9</v>
       </c>
       <c r="F21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -877,7 +877,7 @@
         <v>10</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -897,7 +897,7 @@
         <v>10</v>
       </c>
       <c r="F23" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
@@ -917,7 +917,7 @@
         <v>11</v>
       </c>
       <c r="F24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -937,7 +937,7 @@
         <v>11</v>
       </c>
       <c r="F25" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -957,7 +957,7 @@
         <v>12</v>
       </c>
       <c r="F26" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27">
@@ -977,7 +977,7 @@
         <v>12</v>
       </c>
       <c r="F27" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
@@ -997,7 +997,7 @@
         <v>13</v>
       </c>
       <c r="F28" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
@@ -1017,7 +1017,7 @@
         <v>13</v>
       </c>
       <c r="F29" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -1057,7 +1057,7 @@
         <v>14</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -1077,7 +1077,7 @@
         <v>15</v>
       </c>
       <c r="F32" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33">
@@ -1097,7 +1097,7 @@
         <v>15</v>
       </c>
       <c r="F33" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34">
@@ -1117,7 +1117,7 @@
         <v>16</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35">
@@ -1137,7 +1137,7 @@
         <v>16</v>
       </c>
       <c r="F35" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36">
@@ -1157,7 +1157,7 @@
         <v>17</v>
       </c>
       <c r="F36" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
@@ -1177,7 +1177,7 @@
         <v>17</v>
       </c>
       <c r="F37" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38">
@@ -1197,7 +1197,7 @@
         <v>18</v>
       </c>
       <c r="F38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -1237,7 +1237,7 @@
         <v>19</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
@@ -1257,7 +1257,7 @@
         <v>19</v>
       </c>
       <c r="F41" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42">
@@ -1277,7 +1277,7 @@
         <v>20</v>
       </c>
       <c r="F42" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
@@ -1297,7 +1297,7 @@
         <v>20</v>
       </c>
       <c r="F43" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/sujet_tp/sujet_tp/src/output/save_clustering__hog_rbm_kmeans.xlsx
+++ b/sujet_tp/sujet_tp/src/output/save_clustering__hog_rbm_kmeans.xlsx
@@ -477,7 +477,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -497,7 +497,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -517,7 +517,7 @@
         <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -537,7 +537,7 @@
         <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
@@ -557,7 +557,7 @@
         <v>3</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -577,7 +577,7 @@
         <v>3</v>
       </c>
       <c r="F7" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -617,7 +617,7 @@
         <v>3</v>
       </c>
       <c r="F9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -637,7 +637,7 @@
         <v>4</v>
       </c>
       <c r="F10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
@@ -657,7 +657,7 @@
         <v>4</v>
       </c>
       <c r="F11" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -677,7 +677,7 @@
         <v>5</v>
       </c>
       <c r="F12" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -697,7 +697,7 @@
         <v>5</v>
       </c>
       <c r="F13" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -717,7 +717,7 @@
         <v>6</v>
       </c>
       <c r="F14" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -737,7 +737,7 @@
         <v>6</v>
       </c>
       <c r="F15" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -757,7 +757,7 @@
         <v>7</v>
       </c>
       <c r="F16" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -797,7 +797,7 @@
         <v>8</v>
       </c>
       <c r="F18" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
@@ -817,7 +817,7 @@
         <v>8</v>
       </c>
       <c r="F19" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -837,7 +837,7 @@
         <v>9</v>
       </c>
       <c r="F20" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -857,7 +857,7 @@
         <v>9</v>
       </c>
       <c r="F21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -877,7 +877,7 @@
         <v>10</v>
       </c>
       <c r="F22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -897,7 +897,7 @@
         <v>10</v>
       </c>
       <c r="F23" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -917,7 +917,7 @@
         <v>11</v>
       </c>
       <c r="F24" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25">
@@ -957,7 +957,7 @@
         <v>12</v>
       </c>
       <c r="F26" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
@@ -997,7 +997,7 @@
         <v>13</v>
       </c>
       <c r="F28" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -1017,7 +1017,7 @@
         <v>13</v>
       </c>
       <c r="F29" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -1037,7 +1037,7 @@
         <v>14</v>
       </c>
       <c r="F30" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31">
@@ -1057,7 +1057,7 @@
         <v>14</v>
       </c>
       <c r="F31" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32">
@@ -1077,7 +1077,7 @@
         <v>15</v>
       </c>
       <c r="F32" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
@@ -1097,7 +1097,7 @@
         <v>15</v>
       </c>
       <c r="F33" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34">
@@ -1117,7 +1117,7 @@
         <v>16</v>
       </c>
       <c r="F34" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35">
@@ -1137,7 +1137,7 @@
         <v>16</v>
       </c>
       <c r="F35" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1157,7 +1157,7 @@
         <v>17</v>
       </c>
       <c r="F36" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -1177,7 +1177,7 @@
         <v>17</v>
       </c>
       <c r="F37" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -1197,7 +1197,7 @@
         <v>18</v>
       </c>
       <c r="F38" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
@@ -1217,7 +1217,7 @@
         <v>18</v>
       </c>
       <c r="F39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -1237,7 +1237,7 @@
         <v>19</v>
       </c>
       <c r="F40" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41">
@@ -1257,7 +1257,7 @@
         <v>19</v>
       </c>
       <c r="F41" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42">
@@ -1277,7 +1277,7 @@
         <v>20</v>
       </c>
       <c r="F42" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43">
@@ -1297,7 +1297,7 @@
         <v>20</v>
       </c>
       <c r="F43" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
